--- a/output/1Y_P43_1VAL-D.xlsx
+++ b/output/1Y_P43_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>606.2333</v>
       </c>
-      <c r="G2" s="1">
-        <v>606.2333</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.106400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.4953</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E3" s="1">
+        <v>606.2333</v>
+      </c>
       <c r="F3" s="1">
         <v>589.2717</v>
       </c>
-      <c r="G3" s="1">
-        <v>1195.505</v>
-      </c>
       <c r="H3" s="1">
-        <v>20182.6351</v>
+        <v>10234.491</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7293</v>
+        <v>10234.491</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.4953</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20182.6351</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E4" s="1">
+        <v>1195.505</v>
+      </c>
       <c r="F4" s="1">
         <v>555.8489</v>
       </c>
-      <c r="G4" s="1">
-        <v>1751.3539</v>
-      </c>
       <c r="H4" s="1">
-        <v>31344.3316</v>
+        <v>21396.1923</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1296</v>
+        <v>21396.1923</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.7293</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31344.3316</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0385</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E5" s="1">
+        <v>1751.3539</v>
+      </c>
       <c r="F5" s="1">
         <v>548.3388</v>
       </c>
-      <c r="G5" s="1">
-        <v>2299.6927</v>
-      </c>
       <c r="H5" s="1">
-        <v>41721.7156</v>
+        <v>31773.5884</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3936</v>
+        <v>31773.5884</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1296</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41721.7156</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0091</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E6" s="1">
+        <v>2299.6927</v>
+      </c>
       <c r="F6" s="1">
         <v>522.4797</v>
       </c>
-      <c r="G6" s="1">
-        <v>2822.1724</v>
-      </c>
       <c r="H6" s="1">
-        <v>53734.7274</v>
+        <v>43786.6097</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7168</v>
+        <v>43786.6097</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.3936</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53734.7274</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0389</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>20.979</v>
       </c>
+      <c r="E7" s="1">
+        <v>2822.1724</v>
+      </c>
       <c r="F7" s="1">
         <v>476.6671</v>
       </c>
-      <c r="G7" s="1">
-        <v>3298.8396</v>
-      </c>
       <c r="H7" s="1">
-        <v>68847.7715</v>
+        <v>58899.5852</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.1882</v>
+        <v>58899.5852</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7168</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68847.7715</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.08019999999999999</v>
+        <v>0.0951</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E8" s="1">
+        <v>3298.8396</v>
+      </c>
       <c r="F8" s="1">
         <v>446.606</v>
       </c>
-      <c r="G8" s="1">
-        <v>3745.4456</v>
-      </c>
       <c r="H8" s="1">
-        <v>83430.175</v>
+        <v>73481.9813</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>18.6894</v>
+        <v>73481.9813</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.1882</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>83430.175</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0581</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E9" s="1">
+        <v>3745.4456</v>
+      </c>
       <c r="F9" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G9" s="1">
-        <v>4175.4921</v>
-      </c>
       <c r="H9" s="1">
-        <v>96590.40549999999</v>
+        <v>86642.2691</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>19.1594</v>
+        <v>86642.2691</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.6894</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>96590.40549999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0338</v>
+        <v>0.0379</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>22.965</v>
       </c>
+      <c r="E10" s="1">
+        <v>4175.4921</v>
+      </c>
       <c r="F10" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G10" s="1">
-        <v>4610.9373</v>
-      </c>
       <c r="H10" s="1">
-        <v>105341.0129</v>
+        <v>95392.8744</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>19.5188</v>
+        <v>95392.8744</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>19.1594</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105341.0129</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0117</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E11" s="1">
+        <v>4610.9373</v>
+      </c>
       <c r="F11" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G11" s="1">
-        <v>5111.7687</v>
-      </c>
       <c r="H11" s="1">
-        <v>101536.5952</v>
+        <v>91588.43120000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.5627</v>
+        <v>91588.43120000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>19.5188</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101536.5952</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.1197</v>
+        <v>-0.131</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E12" s="1">
+        <v>5111.7687</v>
+      </c>
       <c r="F12" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G12" s="1">
-        <v>5659.8911</v>
-      </c>
       <c r="H12" s="1">
-        <v>102724.1936</v>
+        <v>92776.046</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.435</v>
+        <v>92776.046</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>19.5627</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>102724.1936</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.079</v>
+        <v>-0.0867</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E13" s="1">
+        <v>5659.8911</v>
+      </c>
       <c r="F13" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G13" s="1">
-        <v>6358.0835</v>
-      </c>
       <c r="H13" s="1">
-        <v>90592.51669999999</v>
+        <v>80644.3924</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.8736</v>
+        <v>80644.3924</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>19.435</v>
+      </c>
+      <c r="M13" s="1">
         <v>2</v>
       </c>
-      <c r="L13" s="1">
-        <v>10187.804</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>187.804</v>
+        <v>9201.1837</v>
       </c>
       <c r="O13" s="1">
-        <v>10187.804</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>100780.3207</v>
+        <v>-798.8163</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.106</v>
+        <v>-0.2153</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E14" s="1">
+        <v>6358.0835</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6358.0835</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-5659.8911</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>99578.3961</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>9201.1837</v>
       </c>
       <c r="J14" s="1">
-        <v>18.8736</v>
+        <v>108779.5798</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.3008</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>99578.3961</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>109766.2001</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109766.2001</v>
+        <v>88643.5165</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0092</v>
+        <v>0.2001</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.4953</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>606.2333</v>
       </c>
       <c r="G2" s="1">
-        <v>606.2333</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.106400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.4953</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.9701</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>606.2333</v>
       </c>
       <c r="F3" s="1">
         <v>578.4534</v>
       </c>
       <c r="G3" s="1">
-        <v>1184.6867</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10234.491</v>
       </c>
       <c r="I3" s="1">
-        <v>19816.4129</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7271</v>
+        <v>10234.491</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9816.412899999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1925</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9816.412899999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>183.5871</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20183.5871</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.9905</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1184.6867</v>
       </c>
       <c r="F4" s="1">
         <v>491.5531</v>
       </c>
       <c r="G4" s="1">
-        <v>1676.2399</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21202.5755</v>
       </c>
       <c r="I4" s="1">
-        <v>28659.6993</v>
+        <v>183.5871</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0976</v>
+        <v>21386.1626</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18659.6993</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.7507</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8843.286400000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1340.3007</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31340.3007</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0383</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.2369</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1676.2399</v>
       </c>
       <c r="F5" s="1">
         <v>528.5522999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2204.7921</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30410.8464</v>
       </c>
       <c r="I5" s="1">
-        <v>38298.8539</v>
+        <v>1340.3007</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3707</v>
+        <v>31751.1471</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28298.8539</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.8823</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9639.154699999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1701.1461</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41701.1461</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>19.1395</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2204.7921</v>
       </c>
       <c r="F6" s="1">
         <v>421.2307</v>
       </c>
       <c r="G6" s="1">
-        <v>2626.0228</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41979.6828</v>
       </c>
       <c r="I6" s="1">
-        <v>46360.9993</v>
+        <v>1701.1461</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6545</v>
+        <v>43680.8289</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36360.9993</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.4918</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8062.1454</v>
       </c>
-      <c r="O6" s="1">
-        <v>3639.0007</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53639.0007</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0375</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>20.979</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2626.0228</v>
       </c>
       <c r="F7" s="1">
         <v>248.8759</v>
       </c>
       <c r="G7" s="1">
-        <v>2874.8988</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>54805.8844</v>
       </c>
       <c r="I7" s="1">
-        <v>51582.1677</v>
+        <v>3639.0007</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9423</v>
+        <v>58444.8851</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>41582.1677</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8347</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-5221.1684</v>
       </c>
-      <c r="O7" s="1">
-        <v>8417.8323</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68417.83229999999</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0751</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>22.3911</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>2874.8988</v>
       </c>
       <c r="F8" s="1">
         <v>267.6236</v>
       </c>
       <c r="G8" s="1">
-        <v>3142.5224</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>64038.6578</v>
       </c>
       <c r="I8" s="1">
-        <v>57574.5542</v>
+        <v>8417.8323</v>
       </c>
       <c r="J8" s="1">
-        <v>18.3211</v>
+        <v>72456.4901</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>47574.5542</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.5483</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5992.3865</v>
       </c>
-      <c r="O8" s="1">
-        <v>12425.4458</v>
-      </c>
-      <c r="P8" s="1">
-        <v>82425.4458</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0511</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>23.2533</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3142.5224</v>
       </c>
       <c r="F9" s="1">
         <v>315.7856</v>
       </c>
       <c r="G9" s="1">
-        <v>3458.3079</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72695.0272</v>
       </c>
       <c r="I9" s="1">
-        <v>64917.6108</v>
+        <v>12425.4458</v>
       </c>
       <c r="J9" s="1">
-        <v>18.7715</v>
+        <v>85120.47289999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>54917.6108</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.4756</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7343.0566</v>
       </c>
-      <c r="O9" s="1">
-        <v>15082.3892</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95082.38920000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0287</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>22.965</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>3458.3079</v>
       </c>
       <c r="F10" s="1">
         <v>481.1298</v>
       </c>
       <c r="G10" s="1">
-        <v>3939.4377</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>79008.15730000001</v>
       </c>
       <c r="I10" s="1">
-        <v>75966.7561</v>
+        <v>15082.3892</v>
       </c>
       <c r="J10" s="1">
-        <v>19.2837</v>
+        <v>94090.5465</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>65966.7561</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>19.0749</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11049.1453</v>
       </c>
-      <c r="O10" s="1">
-        <v>14033.2439</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104033.2439</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.01</v>
+        <v>-0.0108</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>19.9668</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>3939.4377</v>
       </c>
       <c r="F11" s="1">
         <v>1094.9725</v>
       </c>
       <c r="G11" s="1">
-        <v>5034.4102</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>78250.2331</v>
       </c>
       <c r="I11" s="1">
-        <v>97829.8526</v>
+        <v>14033.2439</v>
       </c>
       <c r="J11" s="1">
-        <v>19.4322</v>
+        <v>92283.477</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87829.8526</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>22.295</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-21863.0966</v>
       </c>
-      <c r="O11" s="1">
-        <v>2170.1474</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102170.1474</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.104</v>
+        <v>-0.1134</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.2441</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5034.4102</v>
       </c>
       <c r="F12" s="1">
         <v>667.073</v>
       </c>
       <c r="G12" s="1">
-        <v>5701.4832</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>103479.0701</v>
+        <v>91372.0278</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>2170.1474</v>
       </c>
       <c r="J12" s="1">
-        <v>19.2932</v>
+        <v>93542.1752</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>19.8633</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12170.1474</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>103479.0701</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0775</v>
+        <v>-0.08550000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.3227</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>5701.4832</v>
       </c>
       <c r="F13" s="1">
         <v>698.1924</v>
       </c>
       <c r="G13" s="1">
-        <v>6399.6756</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>91185.1381</v>
+        <v>81237.0138</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.751</v>
+        <v>81237.0138</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>19.2932</v>
+      </c>
+      <c r="M13" s="1">
         <v>2</v>
       </c>
-      <c r="L13" s="1">
-        <v>10262.6698</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>262.6698</v>
+        <v>9061.9383</v>
       </c>
       <c r="O13" s="1">
-        <v>10262.6698</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>101447.8079</v>
+        <v>-938.0617</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.106</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>15.7433</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6399.6756</v>
       </c>
       <c r="F14" s="1">
         <v>-6399.6756</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>100229.7997</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>9061.9383</v>
       </c>
       <c r="J14" s="1">
-        <v>18.751</v>
+        <v>109291.738</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.1884</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>100229.7997</v>
       </c>
-      <c r="O14" s="1">
-        <v>110492.4695</v>
-      </c>
-      <c r="P14" s="1">
-        <v>110492.4695</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0086</v>
+        <v>0.1979</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.4953</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>606.2333</v>
       </c>
       <c r="G2" s="1">
-        <v>606.2333</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.106400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.4953</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.9701</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>606.2333</v>
       </c>
       <c r="F3" s="1">
         <v>581.4152</v>
       </c>
       <c r="G3" s="1">
-        <v>1187.6485</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10234.491</v>
       </c>
       <c r="I3" s="1">
-        <v>19866.6735</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7277</v>
+        <v>10234.491</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9866.673500000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.2754</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9866.673500000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>133.3265</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20183.3265</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.9905</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1187.6485</v>
       </c>
       <c r="F4" s="1">
         <v>496.9866</v>
       </c>
       <c r="G4" s="1">
-        <v>1684.635</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21255.5819</v>
       </c>
       <c r="I4" s="1">
-        <v>28807.7104</v>
+        <v>133.3265</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1003</v>
+        <v>21388.9085</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18807.7104</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.8361</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8941.036899999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1192.2896</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31342.5396</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0384</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.2369</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1684.635</v>
       </c>
       <c r="F5" s="1">
         <v>536.7482</v>
       </c>
       <c r="G5" s="1">
-        <v>2221.3832</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30563.154</v>
       </c>
       <c r="I5" s="1">
-        <v>38596.334</v>
+        <v>1192.2896</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3749</v>
+        <v>31755.4436</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28596.334</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.9748</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9788.623600000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1403.666</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41704.6673</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>19.1395</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2221.3832</v>
       </c>
       <c r="F6" s="1">
         <v>431.0314</v>
       </c>
       <c r="G6" s="1">
-        <v>2652.4147</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42295.5813</v>
       </c>
       <c r="I6" s="1">
-        <v>46846.0604</v>
+        <v>1403.666</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6617</v>
+        <v>43699.2473</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36846.0604</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.587</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8249.7264</v>
       </c>
-      <c r="O6" s="1">
-        <v>3153.9396</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53656.4459</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0377</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>20.979</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2652.4147</v>
       </c>
       <c r="F7" s="1">
         <v>258.6608</v>
       </c>
       <c r="G7" s="1">
-        <v>2911.0755</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>55356.6904</v>
       </c>
       <c r="I7" s="1">
-        <v>52272.5052</v>
+        <v>3153.9396</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9564</v>
+        <v>58510.63</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42272.5052</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.9374</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-5426.4448</v>
       </c>
-      <c r="O7" s="1">
-        <v>7727.4948</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68482.51360000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.07580000000000001</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>22.3911</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>2911.0755</v>
       </c>
       <c r="F8" s="1">
         <v>278.9795</v>
       </c>
       <c r="G8" s="1">
-        <v>3190.055</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>64844.4976</v>
       </c>
       <c r="I8" s="1">
-        <v>58519.1631</v>
+        <v>7727.4948</v>
       </c>
       <c r="J8" s="1">
-        <v>18.3442</v>
+        <v>72571.9924</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>48519.1631</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.6671</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6246.6579</v>
       </c>
-      <c r="O8" s="1">
-        <v>11480.8369</v>
-      </c>
-      <c r="P8" s="1">
-        <v>82539.6308</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0517</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>23.2533</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3190.055</v>
       </c>
       <c r="F9" s="1">
         <v>329.3823</v>
       </c>
       <c r="G9" s="1">
-        <v>3519.4373</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73794.58500000001</v>
       </c>
       <c r="I9" s="1">
-        <v>66178.3894</v>
+        <v>11480.8369</v>
       </c>
       <c r="J9" s="1">
-        <v>18.8037</v>
+        <v>85275.4219</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>56178.3894</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6105</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7659.2263</v>
       </c>
-      <c r="O9" s="1">
-        <v>13821.6106</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95235.69839999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0291</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>22.965</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>3519.4373</v>
       </c>
       <c r="F10" s="1">
         <v>499.7153</v>
       </c>
       <c r="G10" s="1">
-        <v>4019.1526</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>80404.7132</v>
       </c>
       <c r="I10" s="1">
-        <v>77654.35060000001</v>
+        <v>13821.6106</v>
       </c>
       <c r="J10" s="1">
-        <v>19.3211</v>
+        <v>94226.3238</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>67654.35060000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>19.2231</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11475.9612</v>
       </c>
-      <c r="O10" s="1">
-        <v>12345.6494</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104166.8077</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0102</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>19.9668</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>4019.1526</v>
       </c>
       <c r="F11" s="1">
         <v>1119.1402</v>
       </c>
       <c r="G11" s="1">
-        <v>5138.2928</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102063.4522</v>
+        <v>79833.6338</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>12345.6494</v>
       </c>
       <c r="J11" s="1">
-        <v>19.4617</v>
+        <v>92179.28320000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>22.3928</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-22345.6494</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102063.4522</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.106</v>
+        <v>-0.1156</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.2441</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5138.2928</v>
       </c>
       <c r="F12" s="1">
         <v>548.1224</v>
       </c>
       <c r="G12" s="1">
-        <v>5686.4152</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103205.5935</v>
+        <v>93257.44590000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.3443</v>
+        <v>93257.44590000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>19.4617</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>103205.5935</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.079</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.3227</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>5686.4152</v>
       </c>
       <c r="F13" s="1">
         <v>698.1924</v>
       </c>
       <c r="G13" s="1">
-        <v>6384.6076</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>90970.4433</v>
+        <v>81022.319</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.7952</v>
+        <v>81022.319</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>19.3443</v>
+      </c>
+      <c r="M13" s="1">
         <v>2</v>
       </c>
-      <c r="L13" s="1">
-        <v>10235.5474</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>235.5474</v>
+        <v>9248.927100000001</v>
       </c>
       <c r="O13" s="1">
-        <v>10235.5474</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>101205.9908</v>
+        <v>-751.0729</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.106</v>
+        <v>-0.2153</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>15.7433</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6384.6076</v>
       </c>
       <c r="F14" s="1">
         <v>-6384.6076</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>99993.80929999999</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>9248.927100000001</v>
       </c>
       <c r="J14" s="1">
-        <v>18.7952</v>
+        <v>109242.7364</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.2289</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>99993.80929999999</v>
       </c>
-      <c r="O14" s="1">
-        <v>110229.3567</v>
-      </c>
-      <c r="P14" s="1">
-        <v>110229.3567</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.008800000000000001</v>
+        <v>0.2002</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.4953</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>606.2333</v>
       </c>
       <c r="G2" s="1">
-        <v>606.2333</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.106400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.4953</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.9701</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>606.2333</v>
       </c>
       <c r="F3" s="1">
         <v>584.3769</v>
       </c>
       <c r="G3" s="1">
-        <v>1190.6102</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10234.491</v>
       </c>
       <c r="I3" s="1">
-        <v>19916.9341</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7283</v>
+        <v>10234.491</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9916.9341</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.3583</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9916.9341</v>
       </c>
-      <c r="O3" s="1">
-        <v>83.0659</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20183.0659</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.9905</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1190.6102</v>
       </c>
       <c r="F4" s="1">
         <v>502.448</v>
       </c>
       <c r="G4" s="1">
-        <v>1693.0581</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21308.5884</v>
       </c>
       <c r="I4" s="1">
-        <v>28956.2241</v>
+        <v>83.0659</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1029</v>
+        <v>21391.6543</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18956.2241</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9214</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9039.290000000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1043.7759</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31344.7759</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0385</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.2369</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1693.0581</v>
       </c>
       <c r="F5" s="1">
         <v>545.0269</v>
       </c>
       <c r="G5" s="1">
-        <v>2238.085</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30715.9685</v>
       </c>
       <c r="I5" s="1">
-        <v>38895.8251</v>
+        <v>1043.7759</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3791</v>
+        <v>31759.7444</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28895.8251</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.0672</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9939.601000000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1104.1749</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41708.1849</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>19.1395</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2238.085</v>
       </c>
       <c r="F6" s="1">
         <v>440.9861</v>
       </c>
       <c r="G6" s="1">
-        <v>2679.0711</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42613.5865</v>
       </c>
       <c r="I6" s="1">
-        <v>47336.0786</v>
+        <v>1104.1749</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6688</v>
+        <v>43717.7614</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37336.0786</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.6822</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8440.253500000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>2663.9214</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53673.9715</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.038</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>20.979</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2679.0711</v>
       </c>
       <c r="F7" s="1">
         <v>268.6656</v>
       </c>
       <c r="G7" s="1">
-        <v>2947.7368</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>55913.0182</v>
       </c>
       <c r="I7" s="1">
-        <v>52972.415</v>
+        <v>2663.9214</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9705</v>
+        <v>58576.9396</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42972.415</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.04</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-5636.3364</v>
       </c>
-      <c r="O7" s="1">
-        <v>7027.585</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68547.7356</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0765</v>
+        <v>0.0905</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>22.3911</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>2947.7368</v>
       </c>
       <c r="F8" s="1">
         <v>290.6483</v>
       </c>
       <c r="G8" s="1">
-        <v>3238.3851</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>65661.1312</v>
       </c>
       <c r="I8" s="1">
-        <v>59480.3511</v>
+        <v>7027.585</v>
       </c>
       <c r="J8" s="1">
-        <v>18.3673</v>
+        <v>72688.7162</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>49480.3511</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.7859</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6507.9361</v>
       </c>
-      <c r="O8" s="1">
-        <v>10519.6489</v>
-      </c>
-      <c r="P8" s="1">
-        <v>82655.001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0523</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>23.2533</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3238.3851</v>
       </c>
       <c r="F9" s="1">
         <v>343.4149</v>
       </c>
       <c r="G9" s="1">
-        <v>3581.8</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74912.5912</v>
       </c>
       <c r="I9" s="1">
-        <v>67465.8814</v>
+        <v>10519.6489</v>
       </c>
       <c r="J9" s="1">
-        <v>18.8357</v>
+        <v>85432.2401</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>57465.8814</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.7452</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7985.5303</v>
       </c>
-      <c r="O9" s="1">
-        <v>12534.1186</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95390.8242</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0295</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>22.965</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>3581.8</v>
       </c>
       <c r="F10" s="1">
         <v>518.9477000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>4100.7477</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>81829.4454</v>
       </c>
       <c r="I10" s="1">
-        <v>79383.5154</v>
+        <v>12534.1186</v>
       </c>
       <c r="J10" s="1">
-        <v>19.3583</v>
+        <v>94363.564</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>69383.5154</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>19.3711</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11917.634</v>
       </c>
-      <c r="O10" s="1">
-        <v>10616.4846</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104301.7573</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0103</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>19.9668</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>4100.7477</v>
       </c>
       <c r="F11" s="1">
         <v>1032.5382</v>
       </c>
       <c r="G11" s="1">
-        <v>5133.286</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>101963.9994</v>
+        <v>81454.38250000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>10616.4846</v>
       </c>
       <c r="J11" s="1">
-        <v>19.4807</v>
+        <v>92070.8671</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>21.9472</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-20616.4846</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101963.9994</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.1079</v>
+        <v>-0.1178</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.2441</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5133.286</v>
       </c>
       <c r="F12" s="1">
         <v>548.1224</v>
       </c>
       <c r="G12" s="1">
-        <v>5681.4084</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>103114.7215</v>
+        <v>93166.5739</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.3614</v>
+        <v>93166.5739</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>19.4807</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>103114.7215</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.079</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.3227</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>5681.4084</v>
       </c>
       <c r="F13" s="1">
         <v>698.1924</v>
       </c>
       <c r="G13" s="1">
-        <v>6379.6008</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>90899.1036</v>
+        <v>80950.97930000001</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.81</v>
+        <v>80950.97930000001</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>19.3614</v>
+      </c>
+      <c r="M13" s="1">
         <v>2</v>
       </c>
-      <c r="L13" s="1">
-        <v>10226.5351</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>226.5351</v>
+        <v>9239.9148</v>
       </c>
       <c r="O13" s="1">
-        <v>10226.5351</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>101125.6387</v>
+        <v>-760.0852</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.106</v>
+        <v>-0.2153</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>15.7433</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6379.6008</v>
       </c>
       <c r="F14" s="1">
         <v>-6379.6008</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>99915.3933</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>9239.9148</v>
       </c>
       <c r="J14" s="1">
-        <v>18.81</v>
+        <v>109155.3081</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.2425</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>99915.3933</v>
       </c>
-      <c r="O14" s="1">
-        <v>110141.9284</v>
-      </c>
-      <c r="P14" s="1">
-        <v>110141.9284</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0089</v>
+        <v>0.2002</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.4953</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>606.2333</v>
       </c>
       <c r="G2" s="1">
-        <v>606.2333</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.106400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.4953</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.106400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.9701</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>606.2333</v>
       </c>
       <c r="F3" s="1">
         <v>587.3386</v>
       </c>
       <c r="G3" s="1">
-        <v>1193.5719</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10234.491</v>
       </c>
       <c r="I3" s="1">
-        <v>19967.1948</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7289</v>
+        <v>10234.491</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9967.194799999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.4412</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9967.194799999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>32.8052</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20182.8052</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.9905</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1193.5719</v>
       </c>
       <c r="F4" s="1">
         <v>507.9373</v>
       </c>
       <c r="G4" s="1">
-        <v>1701.5092</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21361.5948</v>
       </c>
       <c r="I4" s="1">
-        <v>29105.2405</v>
+        <v>32.8052</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1055</v>
+        <v>21394.4001</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19105.2405</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0068</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9138.045700000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>894.7595</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31347.0095</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0386</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.2369</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1701.5092</v>
       </c>
       <c r="F5" s="1">
         <v>553.3887</v>
       </c>
       <c r="G5" s="1">
-        <v>2254.8979</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30869.2899</v>
       </c>
       <c r="I5" s="1">
-        <v>39197.3349</v>
+        <v>894.7595</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3832</v>
+        <v>31764.0494</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29197.3349</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1597</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10092.0944</v>
       </c>
-      <c r="O5" s="1">
-        <v>802.6651000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41711.6988</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>19.1395</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2254.8979</v>
       </c>
       <c r="F6" s="1">
         <v>451.0962</v>
       </c>
       <c r="G6" s="1">
-        <v>2705.9941</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42933.7066</v>
       </c>
       <c r="I6" s="1">
-        <v>47831.0915</v>
+        <v>802.6651000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>17.676</v>
+        <v>43736.3716</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37831.0915</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7773</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8633.756600000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>2168.9085</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53691.5778</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0383</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>20.979</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2705.9941</v>
       </c>
       <c r="F7" s="1">
         <v>278.8939</v>
       </c>
       <c r="G7" s="1">
-        <v>2984.8881</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>56474.9091</v>
       </c>
       <c r="I7" s="1">
-        <v>53682.0074</v>
+        <v>2168.9085</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9846</v>
+        <v>58643.8176</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43682.0074</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.1427</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-5850.916</v>
       </c>
-      <c r="O7" s="1">
-        <v>6317.9926</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68613.5019</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.07729999999999999</v>
+        <v>0.09130000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>22.3911</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>2984.8881</v>
       </c>
       <c r="F8" s="1">
         <v>302.6367</v>
       </c>
       <c r="G8" s="1">
-        <v>3287.5247</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>66488.67999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>60458.3752</v>
+        <v>6317.9926</v>
       </c>
       <c r="J8" s="1">
-        <v>18.3902</v>
+        <v>72806.67260000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>50458.3752</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.9046</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6776.3677</v>
       </c>
-      <c r="O8" s="1">
-        <v>9541.6248</v>
-      </c>
-      <c r="P8" s="1">
-        <v>82771.5668</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0529</v>
+        <v>0.0606</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>23.2533</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3287.5247</v>
       </c>
       <c r="F9" s="1">
         <v>357.8946</v>
       </c>
       <c r="G9" s="1">
-        <v>3645.4193</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>76049.32309999999</v>
       </c>
       <c r="I9" s="1">
-        <v>68780.60520000001</v>
+        <v>9541.6248</v>
       </c>
       <c r="J9" s="1">
-        <v>18.8677</v>
+        <v>85590.948</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>58780.6052</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8799</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8322.23</v>
       </c>
-      <c r="O9" s="1">
-        <v>11219.3948</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95547.7859</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0299</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>22.965</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>3645.4193</v>
       </c>
       <c r="F10" s="1">
         <v>538.8465</v>
       </c>
       <c r="G10" s="1">
-        <v>4184.2658</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>83282.8848</v>
       </c>
       <c r="I10" s="1">
-        <v>81155.2139</v>
+        <v>11219.3948</v>
       </c>
       <c r="J10" s="1">
-        <v>19.3953</v>
+        <v>94502.27959999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71155.2139</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>19.5191</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12374.6087</v>
       </c>
-      <c r="O10" s="1">
-        <v>8844.786099999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104438.103</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0105</v>
+        <v>-0.0114</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>19.9668</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>4184.2658</v>
       </c>
       <c r="F11" s="1">
         <v>943.806</v>
       </c>
       <c r="G11" s="1">
-        <v>5128.0718</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>101860.428</v>
+        <v>83113.3259</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>8844.786099999999</v>
       </c>
       <c r="J11" s="1">
-        <v>19.5005</v>
+        <v>91958.11199999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>21.5092</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-18844.7861</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101860.428</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.1099</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.2441</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5128.0718</v>
       </c>
       <c r="F12" s="1">
         <v>548.1224</v>
       </c>
       <c r="G12" s="1">
-        <v>5676.1942</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>103020.0863</v>
+        <v>93071.93859999999</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.3792</v>
+        <v>93071.93859999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>19.5005</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>103020.0863</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.079</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.3227</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>5676.1942</v>
       </c>
       <c r="F13" s="1">
         <v>698.1924</v>
       </c>
       <c r="G13" s="1">
-        <v>6374.3866</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>90824.8095</v>
+        <v>80876.68520000001</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.8253</v>
+        <v>80876.68520000001</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>19.3792</v>
+      </c>
+      <c r="M13" s="1">
         <v>2</v>
       </c>
-      <c r="L13" s="1">
-        <v>10217.1495</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>217.1495</v>
+        <v>9230.529200000001</v>
       </c>
       <c r="O13" s="1">
-        <v>10217.1495</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>101041.959</v>
+        <v>-769.4708000000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.106</v>
+        <v>-0.2153</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>15.7433</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6374.3866</v>
       </c>
       <c r="F14" s="1">
         <v>-6374.3866</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>99833.73</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>9230.529200000001</v>
       </c>
       <c r="J14" s="1">
-        <v>18.8253</v>
+        <v>109064.2592</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.2566</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>99833.73</v>
       </c>
-      <c r="O14" s="1">
-        <v>110050.8795</v>
-      </c>
-      <c r="P14" s="1">
-        <v>110050.8795</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0089</v>
+        <v>0.2001</v>
       </c>
     </row>
   </sheetData>
@@ -4478,10 +4451,10 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.7009</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>18.8736</v>
+        <v>17.3008</v>
       </c>
       <c r="D3" s="1">
-        <v>18.751</v>
+        <v>17.1884</v>
       </c>
       <c r="E3" s="1">
-        <v>18.7952</v>
+        <v>17.2289</v>
       </c>
       <c r="F3" s="1">
-        <v>18.81</v>
+        <v>17.2425</v>
       </c>
       <c r="G3" s="1">
-        <v>18.8253</v>
+        <v>17.2566</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.008999999999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0551</v>
+        <v>0.0946</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0548</v>
+        <v>0.0906</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0566</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0567</v>
+        <v>0.0914</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0568</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.3209</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2143</v>
+        <v>0.3629</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2004</v>
+        <v>0.3515</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2025</v>
+        <v>0.3544</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2041</v>
+        <v>0.3555</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2057</v>
+        <v>0.3567</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.0351</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3517</v>
+        <v>0.2046</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3749</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.38</v>
+        <v>0.2002</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3775</v>
+        <v>0.2001</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.375</v>
+        <v>0.1998</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1556</v>
+        <v>-0.3258</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1564</v>
+        <v>-0.1752</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1589</v>
+        <v>-0.1742</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1591</v>
+        <v>-0.1743</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1593</v>
+        <v>-0.1744</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>10187.804</v>
+        <v>9201.1837</v>
       </c>
       <c r="D8" s="1">
-        <v>10262.6698</v>
+        <v>9061.9383</v>
       </c>
       <c r="E8" s="1">
-        <v>10235.5474</v>
+        <v>9248.927100000001</v>
       </c>
       <c r="F8" s="1">
-        <v>10226.5351</v>
+        <v>9239.9148</v>
       </c>
       <c r="G8" s="1">
-        <v>10217.1495</v>
+        <v>9230.529200000001</v>
       </c>
     </row>
   </sheetData>
